--- a/17. Analise de Eventos dos Cénarios.xlsx
+++ b/17. Analise de Eventos dos Cénarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\Desktop\OPE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D875930-646B-4445-B3FC-4B0F6DBF1F8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A47158-EB63-4351-A558-BD398613EA47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FB92CED6-911A-4207-A94E-76D3A789A85E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>Capacidades</t>
   </si>
@@ -84,19 +84,31 @@
     <t>Extreno</t>
   </si>
   <si>
-    <t>Retirar Pedido</t>
-  </si>
-  <si>
-    <t>Cliente Faz Pedido</t>
-  </si>
-  <si>
-    <t>Cliente Efetua o pagamento Em dinheiro</t>
-  </si>
-  <si>
-    <t>Cliente Efetua o pagamento Em cartao</t>
-  </si>
-  <si>
-    <t>Provedor de cartao envia resposta</t>
+    <t>Provedor de cartão envia resposta</t>
+  </si>
+  <si>
+    <t>Planejar a entrega do cliente</t>
+  </si>
+  <si>
+    <t>Carregar a entrega do pedido</t>
+  </si>
+  <si>
+    <t>Fazer a entrega do produto pelo roteiro de entrega</t>
+  </si>
+  <si>
+    <t>x(2)</t>
+  </si>
+  <si>
+    <t>Cliente efetua o pagamento em cartão</t>
+  </si>
+  <si>
+    <t>Cliente efetua o pagamento em dinheiro</t>
+  </si>
+  <si>
+    <t>Cliente faz pedido</t>
+  </si>
+  <si>
+    <t>Receber Pedido</t>
   </si>
 </sst>
 </file>
@@ -252,6 +264,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -275,9 +290,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -596,7 +608,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,22 +627,22 @@
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -657,17 +669,17 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="10">
         <v>1</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
@@ -679,13 +691,13 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="18">
+      <c r="A4" s="17"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="10">
         <v>2</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>9</v>
@@ -697,15 +709,15 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="10">
         <v>3</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>9</v>
@@ -717,13 +729,13 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="18">
+      <c r="A6" s="18"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="10">
         <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>15</v>
@@ -735,15 +747,21 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="5"/>
+      <c r="C7" s="10">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -751,23 +769,35 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="10">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="5"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="10">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -775,8 +805,8 @@
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="11"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="5"/>
@@ -787,8 +817,8 @@
       <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="3"/>
@@ -801,8 +831,8 @@
       <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="14"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="5"/>
